--- a/Backend/test_data/exercise.xlsx
+++ b/Backend/test_data/exercise.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="9800" yWindow="120" windowWidth="17440" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,15 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Exercise types</t>
+    <t>Exercise types</t>
   </si>
   <si>
     <t xml:space="preserve">Aerobic </t>
   </si>
   <si>
-    <t xml:space="preserve">Cycling/mountain biking; golf; walking; jogging; running; swimming; triathlon; rowing; spinning</t>
+    <t>Cycling/mountain biking; golf; walking; jogging; running; swimming; triathlon; rowing; spinning</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed </t>
@@ -42,18 +44,12 @@
   <si>
     <t xml:space="preserve">Sprint swimming; weight lifting/body building; track and field events (Long jump, javelin, shotput, high jump, pole vault, sprinting); archery; gymnastics (bars, beam, floor, rings, vault, horse); fencing </t>
   </si>
-  <si>
-    <t xml:space="preserve">Exercise Intensity </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,22 +58,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -87,6 +68,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -100,7 +97,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -108,70 +105,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -185,9 +151,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -204,9 +170,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -225,9 +197,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -244,97 +216,380 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3714480</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3057480"/>
-          <a:ext cx="5365800" cy="4171680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.27"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="40.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" ht="25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="36">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -342,19 +597,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>